--- a/ig/68-narratif-scenario-identifiant-a-inserer-dans-flux-2/StructureDefinition-eclaire-contact-type.xlsx
+++ b/ig/68-narratif-scenario-identifiant-a-inserer-dans-flux-2/StructureDefinition-eclaire-contact-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T06:13:09+00:00</t>
+    <t>2023-10-04T06:35:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
